--- a/biology/Zoologie/Conure_aile-de-feu/Conure_aile-de-feu.xlsx
+++ b/biology/Zoologie/Conure_aile-de-feu/Conure_aile-de-feu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrrhura egregia
 La Conure aile-de-feu (Pyrrhura egregia) est une espèce d'oiseaux appartenant à la famille des Psittacidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce mesure environ 25 cm. Son plumage présente une dominante verte avec les écailles caractéristiques des conures du genre Pyrrhura. Ses ailes portent les mêmes marques rouges et jaunes que la Conure de Santa Marta.
 </t>
@@ -543,7 +557,9 @@
           <t>Position systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est proche des Conure à ventre rouge et Conure de Santa Marta.
 </t>
@@ -574,7 +590,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cet oiseau comporte deux sous-espèces :
 egregia ;
@@ -606,7 +624,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau peuple les forêts de montagnes entre 700 et 1 800 m d'altitude.
 </t>
@@ -637,7 +657,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit au sud-est du Venezuela, à l'ouest de la Guyane et au nord-est du Brésil.
 </t>
